--- a/math_proj_4.xlsx
+++ b/math_proj_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charumathibadrinath/Logistic_Regression_Math_22b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596AE0B4-D62A-384B-8849-16ABE90F6D88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A59D3E-631F-2040-A718-E9A95AE90CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{391CF572-13BC-D84F-9827-71EF94D5F69D}"/>
+    <workbookView xWindow="3460" yWindow="3660" windowWidth="28040" windowHeight="16940" xr2:uid="{391CF572-13BC-D84F-9827-71EF94D5F69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
